--- a/src/assets/TC_Template-Instruction.xlsx
+++ b/src/assets/TC_Template-Instruction.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRITHANKA\Downloads\Convergence_upload_ASDM-main\src\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE5D08-3CF8-4E2F-8690-D8D000156142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TempleteTC" sheetId="2" r:id="rId1"/>
@@ -59,9 +65,6 @@
     <t>Lok Sabha Constituency</t>
   </si>
   <si>
-    <t>Partner Code</t>
-  </si>
-  <si>
     <t>Smart ID</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
     <t>"John Doe"</t>
   </si>
   <si>
-    <t>Unique Partner Code associated with the training center</t>
-  </si>
-  <si>
     <t>"PC987"</t>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1. </t>
@@ -252,7 +252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Do not change the Excel template heading names.</t>
@@ -262,7 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> If the heading names are changed, the system will show an error message.</t>
@@ -274,7 +274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">2. To insert </t>
@@ -285,7 +285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>TC (Training Center) details,</t>
@@ -295,7 +295,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> you must </t>
@@ -306,7 +306,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>first upload Training Partner (TP) details.</t>
@@ -318,7 +318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">3. Within a </t>
@@ -329,7 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>100-meter radius</t>
@@ -339,7 +339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, two TCs cannot exist under the same TP. (Location are check using </t>
@@ -350,7 +350,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Longitude</t>
@@ -360,7 +360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and </t>
@@ -371,7 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Latitude</t>
@@ -381,7 +381,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -393,7 +393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">4. </t>
@@ -404,7 +404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Ensure that valid Longitude and Latitude values are inserted</t>
@@ -414,7 +414,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>, as incorrect values may cause errors.</t>
@@ -422,13 +422,19 @@
   </si>
   <si>
     <t>5. Make sure to delete the Instruction Sheet before uploading the data.</t>
+  </si>
+  <si>
+    <t>Center Code</t>
+  </si>
+  <si>
+    <t>Unique Center Code associated with the training center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,11 +443,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,14 +462,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,6 +477,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,6 +485,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,20 +530,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,14 +555,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -585,7 +603,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -619,6 +637,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -653,9 +672,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,108 +848,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="10.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" style="4" customWidth="1"/>
-    <col min="7" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="12.109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="19.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="10.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="3" customWidth="1"/>
+    <col min="7" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="12.08984375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="19.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.453125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.6328125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"city,village"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>111111111</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>AND(ISNUMBER(SEARCH("@",A2)),ISNUMBER(SEARCH(".",A2)),ISERROR(SEARCH(" ",A2)))</formula1>
     </dataValidation>
   </dataValidations>
@@ -938,35 +958,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="31.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="1" max="3" width="31.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.36328125" customWidth="1"/>
+    <col min="5" max="5" width="31.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -974,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -991,33 +1011,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1025,16 +1045,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1042,16 +1062,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1059,16 +1079,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1076,16 +1096,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1093,16 +1113,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1110,16 +1130,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1127,16 +1147,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1144,16 +1164,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1161,33 +1181,33 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1195,33 +1215,33 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1229,16 +1249,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1246,114 +1266,114 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/TC_Template-Instruction.xlsx
+++ b/src/assets/TC_Template-Instruction.xlsx
@@ -1,226 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRITHANKA\Downloads\Convergence_upload_ASDM-main\src\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE5D08-3CF8-4E2F-8690-D8D000156142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TempleteTC" sheetId="2" r:id="rId1"/>
     <sheet name="TC_Templete_Instruction" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Sl No</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Droid Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+  </si>
+  <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Langtitude</t>
+  </si>
+  <si>
+    <t>Longtitude</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Description / Instructions</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Serial number</t>
+  </si>
+  <si>
+    <t>1,2,3..........</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Training Center Name</t>
+  </si>
+  <si>
+    <t>"XYZ Training Center"</t>
+  </si>
+  <si>
+    <t>State where the training center is located</t>
+  </si>
+  <si>
+    <t>"Assam"</t>
+  </si>
+  <si>
+    <t>District where the training center is located</t>
+  </si>
+  <si>
+    <t>"Guwahati"</t>
+  </si>
+  <si>
+    <t>Full address of the training center</t>
+  </si>
+  <si>
+    <t>"123, Training Street, Guwahati"</t>
+  </si>
+  <si>
     <t>TP Name</t>
   </si>
   <si>
-    <t>TC Name</t>
-  </si>
-  <si>
-    <t>Spoc Name</t>
-  </si>
-  <si>
-    <t>Spoc Email</t>
-  </si>
-  <si>
-    <t>Spoc Contact Number</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>ULB</t>
-  </si>
-  <si>
-    <t>City or Village</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Assembly Constituency</t>
-  </si>
-  <si>
-    <t>Lok Sabha Constituency</t>
-  </si>
-  <si>
-    <t>Smart ID</t>
-  </si>
-  <si>
-    <t>Langtitude</t>
-  </si>
-  <si>
-    <t>Longtitude</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Description / Instructions</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Serial number</t>
-  </si>
-  <si>
-    <t>1,2,3..........</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Training Center Name</t>
-  </si>
-  <si>
-    <t>"XYZ Training Center"</t>
-  </si>
-  <si>
-    <t>TC Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique code assigned to the training center </t>
-  </si>
-  <si>
-    <t>"TC123"</t>
-  </si>
-  <si>
-    <t>Single Point of Contact (SPOC) email</t>
-  </si>
-  <si>
-    <t>"spoc@example.com"</t>
-  </si>
-  <si>
-    <t>Contact number of SPOC</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>State where the training center is located</t>
-  </si>
-  <si>
-    <t>"Assam"</t>
-  </si>
-  <si>
-    <t>District where the training center is located</t>
-  </si>
-  <si>
-    <t>"Guwahati"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block name </t>
-  </si>
-  <si>
-    <t>"Block A"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban Local Body </t>
-  </si>
-  <si>
-    <t>"ULB XYZ"</t>
-  </si>
-  <si>
-    <t>String (Dropdown)</t>
-  </si>
-  <si>
-    <t>Specify whether the location is a city or village</t>
-  </si>
-  <si>
-    <t>"City"</t>
-  </si>
-  <si>
-    <t>Full address of the training center</t>
-  </si>
-  <si>
-    <t>"123, Training Street, Guwahati"</t>
-  </si>
-  <si>
-    <t>Name of the Single Point of Contact (SPOC)</t>
-  </si>
-  <si>
-    <t>"John Doe"</t>
-  </si>
-  <si>
-    <t>"PC987"</t>
-  </si>
-  <si>
     <t>Training Provider Name</t>
   </si>
   <si>
     <t>"ABC Training Provider"</t>
   </si>
   <si>
-    <t>Smart ID associated with the training center</t>
-  </si>
-  <si>
-    <t>"SMART987"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Constituency where the center is located </t>
-  </si>
-  <si>
-    <t>"AC-45"</t>
-  </si>
-  <si>
-    <t>Lok Sabha Constituency where the center is located</t>
-  </si>
-  <si>
-    <t>"LS-78"</t>
-  </si>
-  <si>
-    <t>Village where the training center is located</t>
-  </si>
-  <si>
-    <t>"XYZ Village"</t>
-  </si>
-  <si>
-    <t>City where the training center is located</t>
-  </si>
-  <si>
-    <t>"Guwahati City"</t>
-  </si>
-  <si>
     <t>Geographical latitude of the training center</t>
   </si>
   <si>
@@ -241,7 +150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1. </t>
@@ -252,7 +161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Do not change the Excel template heading names.</t>
@@ -262,7 +171,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> If the heading names are changed, the system will show an error message.</t>
@@ -274,7 +183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">2. To insert </t>
@@ -285,7 +194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>TC (Training Center) details,</t>
@@ -295,7 +204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> you must </t>
@@ -306,7 +215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>first upload Training Partner (TP) details.</t>
@@ -318,7 +227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">3. Within a </t>
@@ -329,7 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>100-meter radius</t>
@@ -339,7 +248,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, two TCs cannot exist under the same TP. (Location are check using </t>
@@ -350,7 +259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Longitude</t>
@@ -360,7 +269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and </t>
@@ -371,7 +280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Latitude</t>
@@ -381,7 +290,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -393,7 +302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">4. </t>
@@ -404,7 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Ensure that valid Longitude and Latitude values are inserted</t>
@@ -414,7 +323,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>, as incorrect values may cause errors.</t>
@@ -422,19 +331,19 @@
   </si>
   <si>
     <t>5. Make sure to delete the Instruction Sheet before uploading the data.</t>
-  </si>
-  <si>
-    <t>Center Code</t>
-  </si>
-  <si>
-    <t>Unique Center Code associated with the training center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,33 +352,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,7 +407,60 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,26 +468,271 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -527,36 +755,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -843,150 +1354,94 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="10.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="3" customWidth="1"/>
-    <col min="7" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="12.08984375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="19.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="20.453125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.6328125" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="12.4533333333333" style="4" customWidth="1"/>
+    <col min="4" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="9.54" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.63333333333333" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="E2" s="4"/>
+    <row r="2" spans="2:2">
+      <c r="B2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"city,village"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>111111111</formula1>
-      <formula2>9999999999</formula2>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>AND(ISNUMBER(SEARCH("@",A2)),ISNUMBER(SEARCH(".",A2)),ISERROR(SEARCH(" ",A2)))</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="31.6333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="31.6328125" customWidth="1"/>
-    <col min="4" max="4" width="55.36328125" customWidth="1"/>
-    <col min="5" max="5" width="31.6328125" customWidth="1"/>
+    <col min="1" max="3" width="31.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="55.36" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -994,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1011,33 +1466,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1045,16 +1500,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1062,322 +1517,102 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
+    <row r="13" ht="30" customHeight="1" spans="1:1">
+      <c r="A13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
+    <row r="14" ht="30" customHeight="1" spans="1:1">
+      <c r="A14" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
+    <row r="15" ht="30" customHeight="1" spans="1:1">
+      <c r="A15" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
+    <row r="16" ht="30" customHeight="1" spans="1:1">
+      <c r="A16" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>75</v>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>